--- a/sonuc_zero_curve_audit.xlsx
+++ b/sonuc_zero_curve_audit.xlsx
@@ -481,22 +481,22 @@
         <v>46068</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
-        <v>33.19529333372515</v>
+        <v>33.2044500212474</v>
       </c>
       <c r="D2" t="n">
-        <v>33.22515733822965</v>
+        <v>33.34814259525981</v>
       </c>
       <c r="E2" t="n">
-        <v>33.59780218959867</v>
+        <v>33.33832749320761</v>
       </c>
       <c r="F2" t="n">
-        <v>33.1483437440398</v>
+        <v>33.15754296215118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9441846152807333</v>
+        <v>0.9466092687781582</v>
       </c>
     </row>
     <row r="3">
@@ -504,22 +504,22 @@
         <v>46157</v>
       </c>
       <c r="B3" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n">
-        <v>35.51420834871153</v>
+        <v>35.32104477729882</v>
       </c>
       <c r="D3" t="n">
-        <v>35.46433120811474</v>
+        <v>35.25955977576</v>
       </c>
       <c r="E3" t="n">
-        <v>35.20884598061959</v>
+        <v>35.03700670970441</v>
       </c>
       <c r="F3" t="n">
-        <v>35.41494966270347</v>
+        <v>35.31380059777755</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8696856352204521</v>
+        <v>0.8725069478613392</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         <v>46249</v>
       </c>
       <c r="B4" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" t="n">
-        <v>37.31530790825203</v>
+        <v>37.32114489913534</v>
       </c>
       <c r="D4" t="n">
-        <v>37.34898137693747</v>
+        <v>37.06418455587139</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87419461852886</v>
+        <v>36.7929447761955</v>
       </c>
       <c r="F4" t="n">
-        <v>37.34511031203388</v>
+        <v>37.05699076258038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7990443736574189</v>
+        <v>0.8009824528532135</v>
       </c>
     </row>
     <row r="5">
@@ -550,22 +550,22 @@
         <v>46310</v>
       </c>
       <c r="B5" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C5" t="n">
-        <v>38.27443987906006</v>
+        <v>38.42064792899044</v>
       </c>
       <c r="D5" t="n">
-        <v>38.35758207212086</v>
+        <v>38.16476379380285</v>
       </c>
       <c r="E5" t="n">
-        <v>37.97839317192522</v>
+        <v>37.95720805941241</v>
       </c>
       <c r="F5" t="n">
-        <v>38.16941222512823</v>
+        <v>38.07923854348164</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7564727166833493</v>
+        <v>0.7575776920811645</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         <v>46371</v>
       </c>
       <c r="B6" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C6" t="n">
-        <v>39.0963520095228</v>
+        <v>39.33989367703107</v>
       </c>
       <c r="D6" t="n">
-        <v>39.1740093974804</v>
+        <v>39.18882155922463</v>
       </c>
       <c r="E6" t="n">
-        <v>39.08259172532158</v>
+        <v>39.12147134262933</v>
       </c>
       <c r="F6" t="n">
-        <v>38.99371413822259</v>
+        <v>39.10148632438289</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7172690828907049</v>
+        <v>0.7176695586677062</v>
       </c>
     </row>
     <row r="7">
@@ -596,22 +596,22 @@
         <v>46428</v>
       </c>
       <c r="B7" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C7" t="n">
-        <v>39.76780632778286</v>
+        <v>40.05524053049152</v>
       </c>
       <c r="D7" t="n">
-        <v>39.76321626863265</v>
+        <v>40.07656870738951</v>
       </c>
       <c r="E7" t="n">
-        <v>40.11438381620015</v>
+        <v>40.20938949252054</v>
       </c>
       <c r="F7" t="n">
-        <v>39.76396346685174</v>
+        <v>40.05670146391358</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6835037332291937</v>
+        <v>0.6834782145926793</v>
       </c>
     </row>
   </sheetData>
@@ -663,39 +663,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TAHVIL</t>
+          <t>REPO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>46071</v>
+        <v>46007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9416708860759494</v>
+        <v>0.9991218950336772</v>
       </c>
       <c r="E2" t="n">
-        <v>33.24835687581833</v>
+        <v>32.07899999999641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BONO</t>
+          <t>TAHVIL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>46092</v>
+        <v>46071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92355</v>
+        <v>0.9441603375527426</v>
       </c>
       <c r="E3" t="n">
-        <v>33.94844879826807</v>
+        <v>33.21058605865059</v>
       </c>
     </row>
     <row r="4">
@@ -705,35 +705,35 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46190</v>
+        <v>46092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8437</v>
+        <v>0.92618</v>
       </c>
       <c r="E4" t="n">
-        <v>36.15948087080145</v>
+        <v>33.82774557359132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TAHVIL</t>
+          <t>BONO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>46246</v>
+        <v>46190</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8010532516374926</v>
+        <v>0.84615</v>
       </c>
       <c r="E5" t="n">
-        <v>37.30457087368498</v>
+        <v>36.06825930236441</v>
       </c>
     </row>
     <row r="6">
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>46428</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6835246380186677</v>
+        <v>0.6834703242775266</v>
       </c>
       <c r="E6" t="n">
-        <v>39.76396346685174</v>
+        <v>40.05670146391358</v>
       </c>
     </row>
   </sheetData>
@@ -799,30 +799,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TAHVIL 2026-02-18</t>
+          <t>REPO 2025-12-16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111588</v>
+        <v>32.079</v>
       </c>
       <c r="C2" t="n">
-        <v>111588</v>
+        <v>32.07899999999641</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.588240815588506e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BONO 2026-03-11</t>
+          <t>TAHVIL 2026-02-18</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92355</v>
+        <v>111883</v>
       </c>
       <c r="C3" t="n">
-        <v>92355</v>
+        <v>111883</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -831,14 +831,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BONO 2026-06-17</t>
+          <t>BONO 2026-03-11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84370</v>
+        <v>92618</v>
       </c>
       <c r="C4" t="n">
-        <v>84370</v>
+        <v>92618</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -847,14 +847,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TAHVIL 2026-08-12</t>
+          <t>BONO 2026-06-17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111567</v>
+        <v>84615</v>
       </c>
       <c r="C5" t="n">
-        <v>111567</v>
+        <v>84615</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108037</v>
+        <v>108180</v>
       </c>
       <c r="C6" t="n">
-        <v>108037</v>
+        <v>108180</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
